--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Jag1-Notch2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Jag1-Notch2.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.27784</v>
+        <v>16.33975766666667</v>
       </c>
       <c r="H2">
-        <v>30.83352</v>
+        <v>49.01927300000001</v>
       </c>
       <c r="I2">
-        <v>0.230301226653591</v>
+        <v>0.2979519994155143</v>
       </c>
       <c r="J2">
-        <v>0.230301226653591</v>
+        <v>0.2979519994155143</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>27.53580066666666</v>
+        <v>1.174933333333333</v>
       </c>
       <c r="N2">
-        <v>82.60740199999999</v>
+        <v>3.5248</v>
       </c>
       <c r="O2">
-        <v>0.2054887285464768</v>
+        <v>0.01171850713626266</v>
       </c>
       <c r="P2">
-        <v>0.2054887285464768</v>
+        <v>0.01171850713626266</v>
       </c>
       <c r="Q2">
-        <v>283.0085535238933</v>
+        <v>19.19812594115556</v>
       </c>
       <c r="R2">
-        <v>2547.07698171504</v>
+        <v>172.7831334704</v>
       </c>
       <c r="S2">
-        <v>0.04732430624774039</v>
+        <v>0.003491552631414431</v>
       </c>
       <c r="T2">
-        <v>0.04732430624774037</v>
+        <v>0.003491552631414431</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.27784</v>
+        <v>16.33975766666667</v>
       </c>
       <c r="H3">
-        <v>30.83352</v>
+        <v>49.01927300000001</v>
       </c>
       <c r="I3">
-        <v>0.230301226653591</v>
+        <v>0.2979519994155143</v>
       </c>
       <c r="J3">
-        <v>0.230301226653591</v>
+        <v>0.2979519994155143</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>82.514188</v>
       </c>
       <c r="O3">
-        <v>0.2052568555438283</v>
+        <v>0.2743256641287217</v>
       </c>
       <c r="P3">
-        <v>0.2052568555438283</v>
+        <v>0.2743256641287218</v>
       </c>
       <c r="Q3">
-        <v>282.6892073313066</v>
+        <v>449.4206119939249</v>
       </c>
       <c r="R3">
-        <v>2544.20286598176</v>
+        <v>4044.785507945325</v>
       </c>
       <c r="S3">
-        <v>0.0472709056108026</v>
+        <v>0.08173588011814147</v>
       </c>
       <c r="T3">
-        <v>0.04727090561080258</v>
+        <v>0.08173588011814149</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.27784</v>
+        <v>16.33975766666667</v>
       </c>
       <c r="H4">
-        <v>30.83352</v>
+        <v>49.01927300000001</v>
       </c>
       <c r="I4">
-        <v>0.230301226653591</v>
+        <v>0.2979519994155143</v>
       </c>
       <c r="J4">
-        <v>0.230301226653591</v>
+        <v>0.2979519994155143</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.831228</v>
+        <v>39.361408</v>
       </c>
       <c r="N4">
-        <v>101.493684</v>
+        <v>118.084224</v>
       </c>
       <c r="O4">
-        <v>0.2524689988514334</v>
+        <v>0.3925813724534833</v>
       </c>
       <c r="P4">
-        <v>0.2524689988514334</v>
+        <v>0.3925813724534833</v>
       </c>
       <c r="Q4">
-        <v>347.71194838752</v>
+        <v>643.1558681387947</v>
       </c>
       <c r="R4">
-        <v>3129.40753548768</v>
+        <v>5788.402813249153</v>
       </c>
       <c r="S4">
-        <v>0.05814392012748918</v>
+        <v>0.1169704048558021</v>
       </c>
       <c r="T4">
-        <v>0.05814392012748916</v>
+        <v>0.1169704048558021</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.27784</v>
+        <v>16.33975766666667</v>
       </c>
       <c r="H5">
-        <v>30.83352</v>
+        <v>49.01927300000001</v>
       </c>
       <c r="I5">
-        <v>0.230301226653591</v>
+        <v>0.2979519994155143</v>
       </c>
       <c r="J5">
-        <v>0.230301226653591</v>
+        <v>0.2979519994155143</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>45.12975566666666</v>
+        <v>32.221985</v>
       </c>
       <c r="N5">
-        <v>135.389267</v>
+        <v>96.665955</v>
       </c>
       <c r="O5">
-        <v>0.3367854170582615</v>
+        <v>0.3213744562815322</v>
       </c>
       <c r="P5">
-        <v>0.3367854170582615</v>
+        <v>0.3213744562815322</v>
       </c>
       <c r="Q5">
-        <v>463.8364079810933</v>
+        <v>526.4994264389683</v>
       </c>
       <c r="R5">
-        <v>4174.52767182984</v>
+        <v>4738.494837950715</v>
       </c>
       <c r="S5">
-        <v>0.07756209466755887</v>
+        <v>0.09575416181015631</v>
       </c>
       <c r="T5">
-        <v>0.07756209466755884</v>
+        <v>0.09575416181015632</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>43.704382</v>
       </c>
       <c r="I6">
-        <v>0.3264360600001921</v>
+        <v>0.2656466977818992</v>
       </c>
       <c r="J6">
-        <v>0.326436060000192</v>
+        <v>0.2656466977818992</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>27.53580066666666</v>
+        <v>1.174933333333333</v>
       </c>
       <c r="N6">
-        <v>82.60740199999999</v>
+        <v>3.5248</v>
       </c>
       <c r="O6">
-        <v>0.2054887285464768</v>
+        <v>0.01171850713626266</v>
       </c>
       <c r="P6">
-        <v>0.2054887285464768</v>
+        <v>0.01171850713626266</v>
       </c>
       <c r="Q6">
-        <v>401.1450503372848</v>
+        <v>17.11657840817778</v>
       </c>
       <c r="R6">
-        <v>3610.305453035563</v>
+        <v>154.0492056736</v>
       </c>
       <c r="S6">
-        <v>0.06707893092116088</v>
+        <v>0.003112982723681795</v>
       </c>
       <c r="T6">
-        <v>0.06707893092116086</v>
+        <v>0.003112982723681794</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>43.704382</v>
       </c>
       <c r="I7">
-        <v>0.3264360600001921</v>
+        <v>0.2656466977818992</v>
       </c>
       <c r="J7">
-        <v>0.326436060000192</v>
+        <v>0.2656466977818992</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>82.514188</v>
       </c>
       <c r="O7">
-        <v>0.2052568555438283</v>
+        <v>0.2743256641287217</v>
       </c>
       <c r="P7">
-        <v>0.2052568555438283</v>
+        <v>0.2743256641287218</v>
       </c>
       <c r="Q7">
         <v>400.6923991968684</v>
@@ -883,10 +883,10 @@
         <v>3606.231592771816</v>
       </c>
       <c r="S7">
-        <v>0.06700323921175591</v>
+        <v>0.07287370679262133</v>
       </c>
       <c r="T7">
-        <v>0.06700323921175588</v>
+        <v>0.07287370679262134</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>43.704382</v>
       </c>
       <c r="I8">
-        <v>0.3264360600001921</v>
+        <v>0.2656466977818992</v>
       </c>
       <c r="J8">
-        <v>0.326436060000192</v>
+        <v>0.2656466977818992</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>33.831228</v>
+        <v>39.361408</v>
       </c>
       <c r="N8">
-        <v>101.493684</v>
+        <v>118.084224</v>
       </c>
       <c r="O8">
-        <v>0.2524689988514334</v>
+        <v>0.3925813724534833</v>
       </c>
       <c r="P8">
-        <v>0.2524689988514334</v>
+        <v>0.3925813724534833</v>
       </c>
       <c r="Q8">
-        <v>492.857637347032</v>
+        <v>573.4220037632853</v>
       </c>
       <c r="R8">
-        <v>4435.718736123287</v>
+        <v>5160.798033869568</v>
       </c>
       <c r="S8">
-        <v>0.08241498525725495</v>
+        <v>0.1042879452029537</v>
       </c>
       <c r="T8">
-        <v>0.08241498525725492</v>
+        <v>0.1042879452029537</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>43.704382</v>
       </c>
       <c r="I9">
-        <v>0.3264360600001921</v>
+        <v>0.2656466977818992</v>
       </c>
       <c r="J9">
-        <v>0.326436060000192</v>
+        <v>0.2656466977818992</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>45.12975566666666</v>
+        <v>32.221985</v>
       </c>
       <c r="N9">
-        <v>135.389267</v>
+        <v>96.665955</v>
       </c>
       <c r="O9">
-        <v>0.3367854170582615</v>
+        <v>0.3213744562815322</v>
       </c>
       <c r="P9">
-        <v>0.3367854170582615</v>
+        <v>0.3213744562815322</v>
       </c>
       <c r="Q9">
-        <v>657.4560270742214</v>
+        <v>469.4139804127565</v>
       </c>
       <c r="R9">
-        <v>5917.104243667993</v>
+        <v>4224.72582371481</v>
       </c>
       <c r="S9">
-        <v>0.1099389046100204</v>
+        <v>0.08537206306264235</v>
       </c>
       <c r="T9">
-        <v>0.1099389046100203</v>
+        <v>0.08537206306264236</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>17.13170833333333</v>
+        <v>22.15292366666667</v>
       </c>
       <c r="H10">
-        <v>51.395125</v>
+        <v>66.458771</v>
       </c>
       <c r="I10">
-        <v>0.3838796326697257</v>
+        <v>0.4039538427701242</v>
       </c>
       <c r="J10">
-        <v>0.3838796326697257</v>
+        <v>0.4039538427701242</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>27.53580066666666</v>
+        <v>1.174933333333333</v>
       </c>
       <c r="N10">
-        <v>82.60740199999999</v>
+        <v>3.5248</v>
       </c>
       <c r="O10">
-        <v>0.2054887285464768</v>
+        <v>0.01171850713626266</v>
       </c>
       <c r="P10">
-        <v>0.2054887285464768</v>
+        <v>0.01171850713626266</v>
       </c>
       <c r="Q10">
-        <v>471.7353057461388</v>
+        <v>26.02820844675556</v>
       </c>
       <c r="R10">
-        <v>4245.61775171525</v>
+        <v>234.2538760208</v>
       </c>
       <c r="S10">
-        <v>0.07888293763219049</v>
+        <v>0.004733735989222425</v>
       </c>
       <c r="T10">
-        <v>0.07888293763219048</v>
+        <v>0.004733735989222424</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>17.13170833333333</v>
+        <v>22.15292366666667</v>
       </c>
       <c r="H11">
-        <v>51.395125</v>
+        <v>66.458771</v>
       </c>
       <c r="I11">
-        <v>0.3838796326697257</v>
+        <v>0.4039538427701242</v>
       </c>
       <c r="J11">
-        <v>0.3838796326697257</v>
+        <v>0.4039538427701242</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>82.514188</v>
       </c>
       <c r="O11">
-        <v>0.2052568555438283</v>
+        <v>0.2743256641287217</v>
       </c>
       <c r="P11">
-        <v>0.2052568555438283</v>
+        <v>0.2743256641287218</v>
       </c>
       <c r="Q11">
-        <v>471.2030007259444</v>
+        <v>609.3101693936609</v>
       </c>
       <c r="R11">
-        <v>4240.8270065335</v>
+        <v>5483.791524542949</v>
       </c>
       <c r="S11">
-        <v>0.07879392630910778</v>
+        <v>0.1108149061952636</v>
       </c>
       <c r="T11">
-        <v>0.07879392630910775</v>
+        <v>0.1108149061952636</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>17.13170833333333</v>
+        <v>22.15292366666667</v>
       </c>
       <c r="H12">
-        <v>51.395125</v>
+        <v>66.458771</v>
       </c>
       <c r="I12">
-        <v>0.3838796326697257</v>
+        <v>0.4039538427701242</v>
       </c>
       <c r="J12">
-        <v>0.3838796326697257</v>
+        <v>0.4039538427701242</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>33.831228</v>
+        <v>39.361408</v>
       </c>
       <c r="N12">
-        <v>101.493684</v>
+        <v>118.084224</v>
       </c>
       <c r="O12">
-        <v>0.2524689988514334</v>
+        <v>0.3925813724534833</v>
       </c>
       <c r="P12">
-        <v>0.2524689988514334</v>
+        <v>0.3925813724534833</v>
       </c>
       <c r="Q12">
-        <v>579.5867306545</v>
+        <v>871.9702668365228</v>
       </c>
       <c r="R12">
-        <v>5216.2805758905</v>
+        <v>7847.732401528704</v>
       </c>
       <c r="S12">
-        <v>0.09691770653958168</v>
+        <v>0.158584754002554</v>
       </c>
       <c r="T12">
-        <v>0.09691770653958164</v>
+        <v>0.158584754002554</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>17.13170833333333</v>
+        <v>22.15292366666667</v>
       </c>
       <c r="H13">
-        <v>51.395125</v>
+        <v>66.458771</v>
       </c>
       <c r="I13">
-        <v>0.3838796326697257</v>
+        <v>0.4039538427701242</v>
       </c>
       <c r="J13">
-        <v>0.3838796326697257</v>
+        <v>0.4039538427701242</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>45.12975566666666</v>
+        <v>32.221985</v>
       </c>
       <c r="N13">
-        <v>135.389267</v>
+        <v>96.665955</v>
       </c>
       <c r="O13">
-        <v>0.3367854170582615</v>
+        <v>0.3213744562815322</v>
       </c>
       <c r="P13">
-        <v>0.3367854170582615</v>
+        <v>0.3213744562815322</v>
       </c>
       <c r="Q13">
-        <v>773.1498112359304</v>
+        <v>713.8111740934783</v>
       </c>
       <c r="R13">
-        <v>6958.348301123375</v>
+        <v>6424.300566841304</v>
       </c>
       <c r="S13">
-        <v>0.1292850621888458</v>
+        <v>0.1298204465830842</v>
       </c>
       <c r="T13">
-        <v>0.1292850621888458</v>
+        <v>0.1298204465830842</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.650137</v>
+        <v>1.779426333333333</v>
       </c>
       <c r="H14">
-        <v>7.950411</v>
+        <v>5.338279</v>
       </c>
       <c r="I14">
-        <v>0.05938308067649115</v>
+        <v>0.03244746003246218</v>
       </c>
       <c r="J14">
-        <v>0.05938308067649114</v>
+        <v>0.03244746003246217</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>27.53580066666666</v>
+        <v>1.174933333333333</v>
       </c>
       <c r="N14">
-        <v>82.60740199999999</v>
+        <v>3.5248</v>
       </c>
       <c r="O14">
-        <v>0.2054887285464768</v>
+        <v>0.01171850713626266</v>
       </c>
       <c r="P14">
-        <v>0.2054887285464768</v>
+        <v>0.01171850713626266</v>
       </c>
       <c r="Q14">
-        <v>72.97364417135799</v>
+        <v>2.090707313244445</v>
       </c>
       <c r="R14">
-        <v>656.762797542222</v>
+        <v>18.8163658192</v>
       </c>
       <c r="S14">
-        <v>0.01220255374538502</v>
+        <v>0.0003802357919440054</v>
       </c>
       <c r="T14">
-        <v>0.01220255374538502</v>
+        <v>0.0003802357919440052</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.650137</v>
+        <v>1.779426333333333</v>
       </c>
       <c r="H15">
-        <v>7.950411</v>
+        <v>5.338279</v>
       </c>
       <c r="I15">
-        <v>0.05938308067649115</v>
+        <v>0.03244746003246218</v>
       </c>
       <c r="J15">
-        <v>0.05938308067649114</v>
+        <v>0.03244746003246217</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>82.514188</v>
       </c>
       <c r="O15">
-        <v>0.2052568555438283</v>
+        <v>0.2743256641287217</v>
       </c>
       <c r="P15">
-        <v>0.2052568555438283</v>
+        <v>0.2743256641287218</v>
       </c>
       <c r="Q15">
-        <v>72.89130088125199</v>
+        <v>48.94263966693911</v>
       </c>
       <c r="R15">
-        <v>656.021707931268</v>
+        <v>440.483757002452</v>
       </c>
       <c r="S15">
-        <v>0.01218878441216205</v>
+        <v>0.008901171022695342</v>
       </c>
       <c r="T15">
-        <v>0.01218878441216204</v>
+        <v>0.008901171022695342</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.650137</v>
+        <v>1.779426333333333</v>
       </c>
       <c r="H16">
-        <v>7.950411</v>
+        <v>5.338279</v>
       </c>
       <c r="I16">
-        <v>0.05938308067649115</v>
+        <v>0.03244746003246218</v>
       </c>
       <c r="J16">
-        <v>0.05938308067649114</v>
+        <v>0.03244746003246217</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>33.831228</v>
+        <v>39.361408</v>
       </c>
       <c r="N16">
-        <v>101.493684</v>
+        <v>118.084224</v>
       </c>
       <c r="O16">
-        <v>0.2524689988514334</v>
+        <v>0.3925813724534833</v>
       </c>
       <c r="P16">
-        <v>0.2524689988514334</v>
+        <v>0.3925813724534833</v>
       </c>
       <c r="Q16">
-        <v>89.65738907823601</v>
+        <v>70.04072591227734</v>
       </c>
       <c r="R16">
-        <v>806.916501704124</v>
+        <v>630.3665332104961</v>
       </c>
       <c r="S16">
-        <v>0.01499238692710762</v>
+        <v>0.01273826839217355</v>
       </c>
       <c r="T16">
-        <v>0.01499238692710762</v>
+        <v>0.01273826839217355</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.650137</v>
+        <v>1.779426333333333</v>
       </c>
       <c r="H17">
-        <v>7.950411</v>
+        <v>5.338279</v>
       </c>
       <c r="I17">
-        <v>0.05938308067649115</v>
+        <v>0.03244746003246218</v>
       </c>
       <c r="J17">
-        <v>0.05938308067649114</v>
+        <v>0.03244746003246217</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>45.12975566666666</v>
+        <v>32.221985</v>
       </c>
       <c r="N17">
-        <v>135.389267</v>
+        <v>96.665955</v>
       </c>
       <c r="O17">
-        <v>0.3367854170582615</v>
+        <v>0.3213744562815322</v>
       </c>
       <c r="P17">
-        <v>0.3367854170582615</v>
+        <v>0.3213744562815322</v>
       </c>
       <c r="Q17">
-        <v>119.600035293193</v>
+        <v>57.33664862127166</v>
       </c>
       <c r="R17">
-        <v>1076.400317638737</v>
+        <v>516.029837591445</v>
       </c>
       <c r="S17">
-        <v>0.01999935559183646</v>
+        <v>0.01042778482564928</v>
       </c>
       <c r="T17">
-        <v>0.01999935559183646</v>
+        <v>0.01042778482564928</v>
       </c>
     </row>
   </sheetData>
